--- a/testdata/robotfaq/faq_template_category.xlsx
+++ b/testdata/robotfaq/faq_template_category.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\KICP-AUTO\testdata\robotfaq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD9A91E-476C-4077-B892-92BB633CA676}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33075DFF-5EC1-4221-9054-630216D3FC05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query_faq_template_category" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
   <si>
     <t>description</t>
   </si>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>错参-keyName非question或answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>code-1214</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>错参-modifyFrom时间晚于To时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"templateId":"5","keyName":"question","keyword":"瘦脸针"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,14 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"templateId":"5","keyName":"test","keyword":"瘦脸针","modifyTimeFrom":"2020-09-01 23:36:52","modifyTimeTo":"2020-09-05 23:36:52"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"templateId":"5","keyName":"question","keyword":"瘦脸针","modifyTimeFrom":"2020-10-01 23:36:52","modifyTimeTo":"2020-09-05 23:36:52"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"keyName":"question","keyword":"瘦脸针","modifyTimeFrom":"2020-09-01 23:36:52","modifyTimeTo":"2020-09-05 23:36:52"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,14 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空查询-templateId为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"templateId": "","curPage": 1,"pageSize": 10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>错参查询-curPage为负数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,14 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重复添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code-1253</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"data":""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,14 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"data": {"id":"95648847035760640","question":"   发热该怎么办","categoryId":"0","answerIds":"[\"96812832609370112\"]","addTime":"2020-09-02 18:06:22","modifyTime":"2020-09-05 21:23:14","templateId":5,"answerForms":[{"content":"您有发热，建议您测量一下体温，如果体温大于37度三，建议您到医院完善血常规，c反应蛋白等相关检查。建议您多喝点温开水，注意休息，做好自我防护，出门时一定要戴口罩，注意勤洗手，室内要通风换气，保持清新。","parentFAQId":"95648847035760640","categoryId":"0","addTime":"2020-09-05 21:23:14","modifyTime":"2020-09-05 21:23:14","templateId":"5"}],"key":"95648847035760640","similarQuestionforms":[{"question":""}],"effectiveType":0,"enable":true,"sourceType":1,"userId":"11","robotId":"877"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询-有相似度问题，无关联问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"userId": "8771","question": "瘦脸针111","size": 11110}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>错参-userId为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,15 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"data":{"question":"zl-test分类测试问题1","categoryId":"904","similarQuestionforms":[{"question":""}],"answerForms":[{"content":"&lt;div&gt;zl-test分类测试回答1&lt;/div&gt;"}],"effectiveType":0,"sourceType":0,"enable":true,"userId":"11","robotId":"877"}}</t>
-  </si>
-  <si>
-    <t>{"data":{"question": "zl-test分类测试问题2", "categoryId": "904","similarQuestionforms": [{"question": "zl-test分类测试问题2-1"}],"answerForms": [{"content": "&lt;div&gt;zl-test分类测试回答2&lt;/div&gt;","condition": "[{\"action\":\"include\",\"type\":\"input\",\"content\":\"分类测试\"}]"}], "effectiveType": 0, "sourceType": 0, "enable": "true", "userId": "11","robotId": "877"}}</t>
-  </si>
-  <si>
-    <t>{"data":{"question":"zl-test分类测试问题3","categoryId":"904","similarQuestionforms":[{"question":"zl-test分类测试问题3-1"}],"answerForms":[{"content":"&lt;div&gt;zl-test分类测试回答3&lt;/div&gt;"}],"effectiveType":0,"sourceType":0,"enable":true,"userId":"11","robotId":"877"}}</t>
-  </si>
-  <si>
     <t>code-1214</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,11 +431,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>esanswer--template_faq_answer--{"query":{"bool":{"must":[{"match":{"templateId":5}},{"match":{"content":"瘦脸针要"}}]}},"size":10,"from":0,"sort":[{"_score":{"order":"desc"}}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"templateId": "5", "keyword": "瘦脸针", "keyName": "answer", "curPage": 1, "pageSize": 10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":{"id":"95976306872795136","question":"年龄大了能够做这些项目吗？","categoryId":0,"answerIds":"[\"96813317940674560\"]","addTime":"2020-09-03 15:17:05","modifyTime":"2020-09-05 21:25:07","templateId":"5","answerForms":[{"content":"您今年多大年龄呢？针对年龄大的人群做的项目较多的皮肤除皱 年轻化抗衰紧致提升的","parentFAQId":"95976306872795136","categoryId":"0","addTime":"2020-09-05 21:25:07","modifyTime":"2020-09-05 21:25:07","templateId":"5"}],"key":"95976306872795136","effectiveType":0,"enable":"true","sourceType":1,"userId":"11","robotId":"877"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":{"question":"zl-test分类测试问题-仅添加问题及答案","categoryId":"904","similarQuestionforms":[{"question":""}],"answerForms":[{"content":"&lt;div&gt;zl-test分类测试回答1&lt;/div&gt;"}],"effectiveType":0,"sourceType":0,"enable":"true","userId":"11","robotId":"877"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":{"question": "zl-test分类测试问题-添加相似问题及答案，且答案设置触发条件", "categoryId": "904","similarQuestionforms": [{"question": "zl-test分类测试问题2-1添加相似问题"}],"answerForms": [{"content": "&lt;div&gt;zl-test分类测试回答2&lt;/div&gt;","condition": "[{\"action\":\"include\",\"type\":\"input\",\"content\":\"分类测试\"}]"}], "effectiveType": 0, "sourceType": 0, "enable": "true", "userId": "11","robotId": "877"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":{"question":"zl-test分类测试问题-添加相似问题及答案，且答案不设置触发条件","categoryId":"904","similarQuestionforms":[{"question":"zl-test分类测试问题3-1添加相似问题及答案"}],"answerForms":[{"content":"&lt;div&gt;zl-test分类测试回答3&lt;/div&gt;"}],"effectiveType":0,"sourceType":0,"enable":"true","userId":"11","robotId":"877"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esanswer--template_faq_answer--{"query":{"bool":{"must":[{"match":{"templateId":5}},{"match":{"content":"瘦脸针"}}]}},"size":10,"from":0,"sort":[{"_score":{"order":"desc"}}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":{"id":"101305407436324864","question":"zl-test分类测试问题2","parentId":"0","similarQuestionIds":"[\"101305407436324865\"]","similarQuestionforms":[{"id":"101305407436324865","question":"zl-test分类测试问题2-1","parentId":"101305407436324864","categoryId":"0","enable":"true","effectiveType":0,"addTime":"2020-09-17 23:56:43","modifyTime":"2020-09-17 23:56:43","userId":"11","robotId":"877"}],"categoryId":"0","hits":"0","enable":"true","effectiveType":0,"answerIds":"[\"101305407436324866\"]","answerForms":[{"id":"101305407436324866","parentFAQId":"101305407436324864","categoryId":"0","content":"&lt;div&gt;zl-test分类测试回答2&lt;/div&gt;","addTime":"2020-09-17 23:56:43","modifyTime":"2020-09-17 23:56:43","userId":"11","robotId":"877"}],"addTime":"2020-09-17 23:56:43","modifyTime":"2020-09-17 23:56:43","userId":"11","robotId":"877","sourceType":"0"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":{"id":"95651149138231296","question":"病毒是来源于野生动物吗","categoryId":"0","answerIds":"[\"96812806839566336\"]","addTime":"2020-09-02 18:15:18","modifyTime":"2020-09-05 21:23:08","templateId":5,"answerForms":[{"content":"嗯嗯，针对新型冠状病毒感染的肺炎来源，有关专家22日确认，病毒来源就是海鲜市场销售的野生动物。","parentFAQId":"95651149138231296","categoryId":"0","addTime":"2020-09-05 21:23:08","modifyTime":"2020-09-05 21:23:08","templateId":"5"}],"key":"95651149138231296","similarQuestionforms":[{"question":""}],"effectiveType":0,"enable":"true","sourceType":1,"userId":"11","robotId":"877"}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -878,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.2">
@@ -886,10 +861,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
@@ -897,10 +872,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
@@ -908,10 +883,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
@@ -919,43 +894,21 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -967,10 +920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B023A7-C225-4548-BDA4-BB98DEF43506}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B1:C1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -993,112 +946,101 @@
     </row>
     <row r="2" spans="1:3" ht="65.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1111,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4730185A-7752-41A2-A3F4-E7D46CFAD283}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1135,64 +1077,64 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1203,24 +1145,24 @@
     </row>
     <row r="8" spans="1:3" ht="80.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418FFAA6-867E-4C29-9224-5E431FD23C3B}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1259,95 +1201,83 @@
     </row>
     <row r="2" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1359,15 +1289,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DE200D-CEC5-43DC-9178-B7B255FA4F5C}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="54.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="67.125" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1384,86 +1314,87 @@
     </row>
     <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="163.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="163.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="163.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="229.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C935BB30-32EE-429F-8281-750B3BAE6389}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A3" activeCellId="1" sqref="B2 A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1485,62 +1416,50 @@
       </c>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="163.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="163.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1473,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1578,72 +1497,72 @@
     </row>
     <row r="2" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
